--- a/results/mp/logistic/corona/confidence/126/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,169 +40,202 @@
     <t>name</t>
   </si>
   <si>
-    <t>warned</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>died</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>gt</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>better</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>please</t>
@@ -211,46 +244,25 @@
     <t>growth</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>healthy</t>
@@ -259,25 +271,25 @@
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -643,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -722,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -754,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -804,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,31 +834,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L5">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>44</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="L5">
-        <v>18</v>
-      </c>
-      <c r="M5">
-        <v>18</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8529411764705882</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -904,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8356164383561644</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8260869565217391</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1004,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8108108108108109</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.9242819843342036</v>
+        <v>0.9112271540469974</v>
       </c>
       <c r="L11">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M11">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7894736842105263</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>0.9090909090909091</v>
@@ -1204,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6944444444444444</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>0.9069767441860465</v>
@@ -1254,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6333333333333333</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.9014084507042254</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.64</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,16 +1337,16 @@
         <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8928571428571429</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6084656084656085</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.890625</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M16">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5769230769230769</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,16 +1437,16 @@
         <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.8875</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L17">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5084745762711864</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>0.8846153846153846</v>
@@ -1504,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4509803921568628</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.8773584905660378</v>
+        <v>0.8828125</v>
       </c>
       <c r="L19">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M19">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4457364341085271</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.8723404255319149</v>
+        <v>0.875</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2363636363636364</v>
+        <v>0.498062015503876</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.8620689655172413</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2266666666666667</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2080536912751678</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,21 +1758,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.3087248322147651</v>
+      </c>
+      <c r="C24">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>103</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.8421052631578947</v>
+        <v>0.8125</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1776,17 +1812,41 @@
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>53</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.8414634146341463</v>
+        <v>0.8</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1798,21 +1858,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>234</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1828,17 +1912,41 @@
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.007412181759587496</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>0.15</v>
+      </c>
+      <c r="F27">
+        <v>0.85</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3080</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.7708333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1850,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.7647058823529411</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1876,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1902,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.746031746031746</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L30">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1928,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.7428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1954,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1980,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2006,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.7352941176470589</v>
+        <v>0.74</v>
       </c>
       <c r="L34">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2032,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>90</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.7272727272727273</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2058,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.7154811715481172</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L36">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2084,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.7142857142857143</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2110,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2136,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.7021276595744681</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L39">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2162,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2188,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.6972789115646258</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2211,24 +2319,24 @@
         <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>89</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.6956521739130435</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2240,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.6923076923076923</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2266,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.6842105263157895</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2292,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2318,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2344,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.6190476190476191</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2370,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.5925925925925926</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2401,16 +2509,16 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.5769230769230769</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2422,21 +2530,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2448,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2474,12 +2582,12 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K52">
         <v>0.5555555555555556</v>
@@ -2505,7 +2613,7 @@
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K53">
         <v>0.5490196078431373</v>
@@ -2531,16 +2639,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.5476190476190477</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2552,12 +2660,12 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K55">
         <v>0.5416666666666666</v>
@@ -2583,16 +2691,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.5393258426966292</v>
+        <v>0.5</v>
       </c>
       <c r="L56">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2604,21 +2712,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.5</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2630,21 +2738,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>0.4888888888888889</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L58">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2656,21 +2764,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>0.4657534246575342</v>
+        <v>0.4</v>
       </c>
       <c r="L59">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M59">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2682,21 +2790,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K60">
-        <v>0.358974358974359</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M60">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2708,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
